--- a/biology/Botanique/Parc_Gezi/Parc_Gezi.xlsx
+++ b/biology/Botanique/Parc_Gezi/Parc_Gezi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le parc Gezi (en turc, Gezi signifie « promenade »)[1] est un parc urbain d'Istanbul situé dans le quartier de Taksim. Sa suppression est envisagée par le projet de piétonnisation de la place Taksim[2] et engendre un mouvement protestataire.
+Le parc Gezi (en turc, Gezi signifie « promenade ») est un parc urbain d'Istanbul situé dans le quartier de Taksim. Sa suppression est envisagée par le projet de piétonnisation de la place Taksim et engendre un mouvement protestataire.
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,6 +553,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
